--- a/code/py2neo/图数据库测试数据.xlsx
+++ b/code/py2neo/图数据库测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试员打分情况" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="155">
   <si>
     <t>色泽</t>
   </si>
@@ -248,20 +248,6 @@
     <t>四川麻辣牛肉味</t>
   </si>
   <si>
-    <r>
-      <t>桶装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>90g</t>
-    </r>
-  </si>
-  <si>
     <t>重庆水煮肉片味</t>
   </si>
   <si>
@@ -350,12 +336,6 @@
   </si>
   <si>
     <t>T20070912112</t>
-  </si>
-  <si>
-    <t>T20070917102</t>
-  </si>
-  <si>
-    <t>烧烤牛肉面</t>
   </si>
   <si>
     <t>T20070922112</t>
@@ -859,55 +839,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>五谷道场</t>
+  </si>
+  <si>
+    <t>今麦郎</t>
+  </si>
+  <si>
+    <t>康师傅</t>
+  </si>
+  <si>
+    <t>白象</t>
+  </si>
+  <si>
+    <t>统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓香排骨面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_widen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葱爆虾面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五谷道场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>庖丁时蔬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五谷道场</t>
-  </si>
-  <si>
-    <t>今麦郎</t>
-  </si>
-  <si>
-    <t>康师傅</t>
-  </si>
-  <si>
-    <t>白象</t>
-  </si>
-  <si>
-    <t>统一</t>
+    <t>袋装75g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浓香排骨面</t>
+    <t>加宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manufacturer</t>
+    <r>
+      <t>桶装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>90g</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>大骨面-酱香猪骨味</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if_widen</t>
+    <t>T20070917102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sampleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葱爆虾面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specification</t>
+    <t>烧烤牛肉面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,6 +1112,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2758,16 +2780,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2775,7 +2797,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2784,7 +2806,7 @@
         <v>140000</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2792,7 +2814,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2801,7 +2823,7 @@
         <v>220000</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2809,7 +2831,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2818,7 +2840,7 @@
         <v>360000</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2826,7 +2848,7 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2835,7 +2857,7 @@
         <v>400000</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2843,7 +2865,7 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2852,7 +2874,7 @@
         <v>600000</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2860,7 +2882,7 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -2869,7 +2891,7 @@
         <v>880000</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2877,7 +2899,7 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2886,7 +2908,7 @@
         <v>140000</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2894,7 +2916,7 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2903,7 +2925,7 @@
         <v>220000</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2911,7 +2933,7 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2920,7 +2942,7 @@
         <v>360000</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2928,7 +2950,7 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2937,7 +2959,7 @@
         <v>140000</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2945,7 +2967,7 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2954,7 +2976,7 @@
         <v>220000</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2962,7 +2984,7 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2971,7 +2993,7 @@
         <v>360000</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2979,7 +3001,7 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2988,7 +3010,7 @@
         <v>140000</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2996,7 +3018,7 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3005,7 +3027,7 @@
         <v>220000</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3013,7 +3035,7 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3022,12 +3044,12 @@
         <v>220000</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3051,30 +3073,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>2.1800000000000002</v>
@@ -3100,7 +3122,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3126,7 +3148,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>3.3</v>
@@ -3152,7 +3174,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>3.38</v>
@@ -3286,7 +3308,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(-1,1)</f>
@@ -3298,7 +3320,7 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -3306,15 +3328,15 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
@@ -3322,23 +3344,23 @@
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -3350,11 +3372,11 @@
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f t="shared" ref="R2:AE13" ca="1" si="1">RANDBETWEEN(-1,1)</f>
@@ -3362,7 +3384,7 @@
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
@@ -3374,11 +3396,11 @@
       </c>
       <c r="W2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
@@ -3386,15 +3408,15 @@
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <f t="shared" ca="1" si="1"/>
@@ -3402,16 +3424,16 @@
       </c>
       <c r="AD2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" ca="1" si="2">RANDBETWEEN(-1,1)</f>
@@ -3419,7 +3441,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -3427,7 +3449,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
@@ -3435,19 +3457,19 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
@@ -3467,7 +3489,7 @@
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
@@ -3475,11 +3497,11 @@
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
@@ -3487,7 +3509,7 @@
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
@@ -3495,15 +3517,15 @@
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
@@ -3511,7 +3533,7 @@
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="1"/>
@@ -3523,7 +3545,7 @@
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
@@ -3531,16 +3553,16 @@
       </c>
       <c r="AE3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
@@ -3548,15 +3570,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
@@ -3568,7 +3590,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
@@ -3576,7 +3598,7 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
@@ -3584,35 +3606,35 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
@@ -3620,15 +3642,15 @@
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="1"/>
@@ -3640,11 +3662,11 @@
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="1"/>
@@ -3652,16 +3674,16 @@
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
@@ -3669,11 +3691,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
@@ -3681,7 +3703,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
@@ -3701,7 +3723,7 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
@@ -3709,31 +3731,31 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
@@ -3741,11 +3763,11 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
@@ -3753,7 +3775,7 @@
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
@@ -3761,11 +3783,11 @@
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
@@ -3777,20 +3799,20 @@
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
@@ -3798,11 +3820,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
@@ -3810,35 +3832,35 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
@@ -3854,11 +3876,11 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
@@ -3870,11 +3892,11 @@
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
@@ -3894,15 +3916,15 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="1"/>
@@ -3911,7 +3933,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
@@ -3923,11 +3945,11 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
@@ -3939,7 +3961,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
@@ -3959,15 +3981,15 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
@@ -3975,11 +3997,11 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
@@ -3987,7 +4009,7 @@
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
@@ -3995,27 +4017,27 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
@@ -4031,16 +4053,16 @@
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
@@ -4048,7 +4070,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
@@ -4056,11 +4078,11 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
@@ -4068,7 +4090,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -4080,7 +4102,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
@@ -4088,23 +4110,23 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
@@ -4112,7 +4134,7 @@
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
@@ -4120,7 +4142,7 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
@@ -4136,11 +4158,11 @@
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
@@ -4148,7 +4170,7 @@
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
@@ -4156,24 +4178,24 @@
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
@@ -4185,11 +4207,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
@@ -4197,7 +4219,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
@@ -4205,11 +4227,11 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
@@ -4221,7 +4243,7 @@
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
@@ -4229,35 +4251,35 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="1"/>
@@ -4269,7 +4291,7 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
@@ -4277,7 +4299,7 @@
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
@@ -4286,23 +4308,23 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -4310,11 +4332,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
@@ -4322,23 +4344,23 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
@@ -4346,11 +4368,11 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
@@ -4366,19 +4388,19 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
@@ -4386,11 +4408,11 @@
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
@@ -4398,7 +4420,7 @@
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
@@ -4406,20 +4428,20 @@
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
@@ -4427,15 +4449,15 @@
       </c>
       <c r="E11">
         <f ca="1">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
@@ -4447,7 +4469,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
@@ -4455,7 +4477,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
@@ -4463,23 +4485,23 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
@@ -4491,15 +4513,15 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
@@ -4515,28 +4537,28 @@
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
@@ -4544,19 +4566,19 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
@@ -4564,11 +4586,11 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -4576,23 +4598,23 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
@@ -4600,19 +4622,19 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
@@ -4624,7 +4646,7 @@
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
@@ -4632,11 +4654,11 @@
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="1"/>
@@ -4648,7 +4670,7 @@
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
@@ -4661,23 +4683,23 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
@@ -4685,7 +4707,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
@@ -4693,27 +4715,27 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
@@ -4725,11 +4747,11 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
@@ -4737,7 +4759,7 @@
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
@@ -4745,15 +4767,15 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="1"/>
@@ -4761,11 +4783,11 @@
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="1"/>
@@ -4773,7 +4795,7 @@
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
@@ -4781,7 +4803,7 @@
       </c>
       <c r="AE13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4794,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4808,27 +4830,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B2" s="27">
         <v>1001</v>
@@ -4837,18 +4859,18 @@
         <v>20070528761</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="27">
         <v>1002</v>
@@ -4868,7 +4890,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B4" s="27">
         <v>1003</v>
@@ -4888,7 +4910,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" s="27">
         <v>1004</v>
@@ -4908,7 +4930,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="27">
         <v>1005</v>
@@ -4928,7 +4950,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B7" s="27">
         <v>1006</v>
@@ -4948,7 +4970,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B8" s="27">
         <v>1007</v>
@@ -4960,12 +4982,12 @@
         <v>24</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B9" s="27">
         <v>1008</v>
@@ -4974,15 +4996,15 @@
         <v>200706190122</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" s="27">
         <v>1009</v>
@@ -4991,15 +5013,15 @@
         <v>200706190132</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="27">
         <v>1010</v>
@@ -5008,15 +5030,15 @@
         <v>200706190042</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B12" s="27">
         <v>1011</v>
@@ -5025,15 +5047,15 @@
         <v>200706207074</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B13" s="27">
         <v>1012</v>
@@ -5042,316 +5064,316 @@
         <v>200706191114</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B14" s="27">
         <v>1013</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B15" s="27">
         <v>1014</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16" s="27">
         <v>1015</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>40</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17" s="27">
         <v>1016</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B18" s="27">
         <v>1017</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B19" s="27">
         <v>1018</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B20" s="27">
         <v>1019</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B21" s="27">
         <v>1020</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B22" s="27">
         <v>1021</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B23" s="27">
         <v>1022</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" s="27">
         <v>1023</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="27">
         <v>1024</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B26" s="27">
         <v>1025</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B27" s="27">
         <v>1026</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B28" s="27">
         <v>1027</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B29" s="27">
         <v>1028</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B30" s="27">
         <v>1029</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B31" s="27">
         <v>1030</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
@@ -5374,7 +5396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -5382,52 +5404,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>119</v>
-      </c>
-      <c r="P1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -5439,55 +5461,55 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,200)/10</f>
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="D2">
         <f ca="1">C2+RANDBETWEEN(10,100)/10</f>
-        <v>20.2</v>
+        <v>23.3</v>
       </c>
       <c r="E2">
         <f ca="1">D2+RANDBETWEEN(10,100)/10</f>
-        <v>29.299999999999997</v>
+        <v>28.9</v>
       </c>
       <c r="F2">
         <f ca="1">E2+RANDBETWEEN(10,100)/10</f>
-        <v>38.799999999999997</v>
+        <v>36.5</v>
       </c>
       <c r="G2">
         <f ca="1">F2+RANDBETWEEN(-10,100)/10</f>
-        <v>44</v>
+        <v>37.9</v>
       </c>
       <c r="H2">
         <f ca="1">G2+RANDBETWEEN(-10,100)/10</f>
-        <v>52.4</v>
+        <v>38.699999999999996</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,100)/10</f>
-        <v>55</v>
+        <v>38.999999999999993</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:K11" ca="1" si="0">I2-RANDBETWEEN(10,50)/10</f>
-        <v>51</v>
+        <v>36.899999999999991</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>49.7</v>
+        <v>33.899999999999991</v>
       </c>
       <c r="L2">
         <f ca="1">K2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>23.650000000000002</v>
+        <v>25.349999999999994</v>
       </c>
       <c r="M2">
         <f ca="1">L2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>20.925000000000001</v>
+        <v>11.174999999999997</v>
       </c>
       <c r="N2">
         <f ca="1">M2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>8.6624999999999996</v>
+        <v>4.1874999999999982</v>
       </c>
       <c r="O2">
         <f ca="1">N2/2</f>
-        <v>4.3312499999999998</v>
+        <v>2.0937499999999991</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -5502,55 +5524,55 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">RANDBETWEEN(10,200)/10</f>
-        <v>8.3000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:F16" ca="1" si="2">C3+RANDBETWEEN(10,100)/10</f>
-        <v>14.3</v>
+        <v>7.4</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>19.899999999999999</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>20.9</v>
+        <v>24.7</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:I16" ca="1" si="3">F3+RANDBETWEEN(-10,100)/10</f>
-        <v>25.9</v>
+        <v>34.1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="3"/>
-        <v>32.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="3"/>
-        <v>42.3</v>
+        <v>43.7</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>40.799999999999997</v>
+        <v>41.800000000000004</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3" ca="1" si="4">J3-RANDBETWEEN(10,50)/10</f>
-        <v>39.599999999999994</v>
+        <v>39.1</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:N3" ca="1" si="5">K3/2+RANDBETWEEN(-50,100)/10</f>
-        <v>19.199999999999996</v>
+        <v>23.65</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0999999999999979</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6499999999999986</v>
+        <v>2.9124999999999996</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" ca="1" si="6">N3/2</f>
-        <v>3.3249999999999993</v>
+        <v>1.4562499999999998</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -5565,55 +5587,55 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>17.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>22.4</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>26.9</v>
+        <v>34.5</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>30.799999999999997</v>
+        <v>43.9</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>29.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" ca="1" si="7">J4-RANDBETWEEN(10,50)/10</f>
-        <v>26.999999999999996</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:N4" ca="1" si="8">K4/2+RANDBETWEEN(-50,100)/10</f>
-        <v>16.799999999999997</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="8"/>
-        <v>14.599999999999998</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="8"/>
-        <v>12.899999999999999</v>
+        <v>13.25</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4499999999999993</v>
+        <v>6.625</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -5628,7 +5650,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.3</v>
+        <v>12.9</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
@@ -5636,47 +5658,47 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>25.1</v>
+        <v>31.1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>28.5</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>38.200000000000003</v>
+        <v>41.9</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>46.2</v>
+        <v>43.1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>51.5</v>
+        <v>46.4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>48.9</v>
+        <v>44.9</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5" ca="1" si="9">J5-RANDBETWEEN(10,50)/10</f>
-        <v>44.8</v>
+        <v>42.5</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:N5" ca="1" si="10">K5/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.2</v>
+        <v>27.55</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="10"/>
-        <v>17.5</v>
+        <v>13.375</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="10"/>
-        <v>11.85</v>
+        <v>10.2875</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9249999999999998</v>
+        <v>5.1437499999999998</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5691,55 +5713,55 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
+        <v>19.8</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>13.7</v>
+        <v>25.3</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>14.799999999999999</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>17.7</v>
+        <v>41.3</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>17.7</v>
+        <v>43.3</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>22.6</v>
+        <v>47.4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>20.200000000000003</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6" ca="1" si="11">J6-RANDBETWEEN(10,50)/10</f>
-        <v>16.300000000000004</v>
+        <v>41.4</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:N6" ca="1" si="12">K6/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.850000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="12"/>
-        <v>8.3250000000000011</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="12"/>
-        <v>12.862500000000001</v>
+        <v>15.3</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4312500000000004</v>
+        <v>7.65</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5754,55 +5776,55 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>19.399999999999999</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>21.2</v>
+        <v>18.7</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>30.4</v>
+        <v>21.9</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>40.4</v>
+        <v>23.2</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>43.4</v>
+        <v>26.4</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>38.799999999999997</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="13">J7-RANDBETWEEN(10,50)/10</f>
-        <v>36.4</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:N7" ca="1" si="14">K7/2+RANDBETWEEN(-50,100)/10</f>
-        <v>26.299999999999997</v>
+        <v>9.6499999999999986</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="14"/>
-        <v>8.8499999999999979</v>
+        <v>13.424999999999999</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="14"/>
-        <v>2.7249999999999988</v>
+        <v>14.8125</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3624999999999994</v>
+        <v>7.40625</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -5817,55 +5839,55 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>12.7</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
+        <v>21.2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>26.1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>20.399999999999999</v>
+        <v>30.8</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>24.099999999999998</v>
+        <v>31.6</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>27.999999999999996</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>27.299999999999997</v>
+        <v>44.500000000000007</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>25.999999999999996</v>
+        <v>39.900000000000006</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" ca="1" si="15">J8-RANDBETWEEN(10,50)/10</f>
-        <v>22.799999999999997</v>
+        <v>37.300000000000004</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:N8" ca="1" si="16">K8/2+RANDBETWEEN(-50,100)/10</f>
-        <v>11.399999999999999</v>
+        <v>25.950000000000003</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6</v>
+        <v>14.375000000000002</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="16"/>
-        <v>11.7</v>
+        <v>12.887500000000001</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.85</v>
+        <v>6.4437500000000005</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -5880,55 +5902,55 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>19.3</v>
+        <v>13.8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>31.3</v>
+        <v>27.1</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>40.700000000000003</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>49.400000000000006</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>54.7</v>
+        <v>39.800000000000004</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>64.600000000000009</v>
+        <v>43.300000000000004</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>62.500000000000007</v>
+        <v>39.1</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9" ca="1" si="17">J9-RANDBETWEEN(10,50)/10</f>
-        <v>60.600000000000009</v>
+        <v>36</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:N9" ca="1" si="18">K9/2+RANDBETWEEN(-50,100)/10</f>
-        <v>35.6</v>
+        <v>19.5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="18"/>
-        <v>18.8</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>8.4</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -5943,55 +5965,55 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>13.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>16.399999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>18.299999999999997</v>
+        <v>20.6</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>23.9</v>
+        <v>25.400000000000002</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>31.799999999999997</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>40.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>47.599999999999994</v>
+        <v>45.5</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>43.199999999999996</v>
+        <v>41.1</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10" ca="1" si="19">J10-RANDBETWEEN(10,50)/10</f>
-        <v>38.699999999999996</v>
+        <v>37.4</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:N10" ca="1" si="20">K10/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.249999999999996</v>
+        <v>20.5</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="20"/>
-        <v>20.224999999999998</v>
+        <v>13.35</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="20"/>
-        <v>16.512499999999999</v>
+        <v>12.375</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2562499999999996</v>
+        <v>6.1875</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -6006,55 +6028,55 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>16.7</v>
+        <v>10.6</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>18.899999999999999</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>24.099999999999998</v>
+        <v>17.299999999999997</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>31.4</v>
+        <v>22.599999999999998</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>41.2</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>37.1</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>52.1</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.800000000000004</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11" ca="1" si="21">J11-RANDBETWEEN(10,50)/10</f>
-        <v>47.6</v>
+        <v>33.400000000000006</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:N11" ca="1" si="22">K11/2+RANDBETWEEN(-50,100)/10</f>
-        <v>32.6</v>
+        <v>13.600000000000003</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="22"/>
-        <v>12.100000000000001</v>
+        <v>12.400000000000002</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="22"/>
-        <v>1.3500000000000005</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67500000000000027</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -6069,55 +6091,55 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>13.7</v>
+        <v>2.5</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>18.899999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>19.899999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>26.2</v>
+        <v>23.9</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>27.7</v>
+        <v>30.9</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>35.6</v>
+        <v>36.1</v>
       </c>
       <c r="J12">
         <f ca="1">I12-RANDBETWEEN(10,50)/10</f>
-        <v>30.700000000000003</v>
+        <v>31.3</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" ca="1" si="23">J12-RANDBETWEEN(10,50)/10</f>
-        <v>25.900000000000002</v>
+        <v>29.7</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:N12" ca="1" si="24">K12/2+RANDBETWEEN(-50,100)/10</f>
-        <v>12.250000000000002</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="24"/>
-        <v>2.6250000000000009</v>
+        <v>7.5750000000000011</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="24"/>
-        <v>3.4125000000000005</v>
+        <v>-0.51249999999999929</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7062500000000003</v>
+        <v>-0.25624999999999964</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -6132,55 +6154,55 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>18.2</v>
+        <v>2.9</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>24.9</v>
+        <v>7.5</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>34.099999999999994</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>36.299999999999997</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>42.699999999999996</v>
+        <v>15.500000000000002</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>52.399999999999991</v>
+        <v>24.300000000000004</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>54.599999999999994</v>
+        <v>24.400000000000006</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:K16" ca="1" si="25">I13-RANDBETWEEN(10,50)/10</f>
-        <v>51.899999999999991</v>
+        <v>22.300000000000004</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="25"/>
-        <v>50.199999999999989</v>
+        <v>19.800000000000004</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13:N13" ca="1" si="26">K13/2+RANDBETWEEN(-50,100)/10</f>
-        <v>24.799999999999994</v>
+        <v>11.300000000000002</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="26"/>
-        <v>16.599999999999998</v>
+        <v>5.7500000000000009</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="26"/>
-        <v>14.7</v>
+        <v>8.5750000000000011</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>7.35</v>
+        <v>4.2875000000000005</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6195,55 +6217,55 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>12.3</v>
+        <v>19.8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>19.600000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>27.6</v>
+        <v>25.3</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>35.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>34.300000000000004</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>35.500000000000007</v>
+        <v>36.800000000000004</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>40.500000000000007</v>
+        <v>45.300000000000004</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="25"/>
-        <v>36.600000000000009</v>
+        <v>43.000000000000007</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="25"/>
-        <v>33.70000000000001</v>
+        <v>38.20000000000001</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:N14" ca="1" si="27">K14/2+RANDBETWEEN(-50,100)/10</f>
-        <v>24.050000000000004</v>
+        <v>15.000000000000005</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="27"/>
-        <v>10.925000000000002</v>
+        <v>5.6000000000000032</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="27"/>
-        <v>4.2625000000000011</v>
+        <v>11.900000000000002</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1312500000000005</v>
+        <v>5.9500000000000011</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6258,55 +6280,55 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>3.6</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>13.8</v>
+        <v>7.4</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>29.7</v>
+        <v>17.700000000000003</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>37.1</v>
+        <v>24.700000000000003</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>40.4</v>
+        <v>31.800000000000004</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>43.199999999999996</v>
+        <v>31.000000000000004</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="25"/>
-        <v>38.4</v>
+        <v>27.800000000000004</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="25"/>
-        <v>36.299999999999997</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:N15" ca="1" si="28">K15/2+RANDBETWEEN(-50,100)/10</f>
-        <v>19.049999999999997</v>
+        <v>9.5000000000000018</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="28"/>
-        <v>7.7249999999999988</v>
+        <v>12.55</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="28"/>
-        <v>2.5624999999999991</v>
+        <v>5.375</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2812499999999996</v>
+        <v>2.6875</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6321,55 +6343,55 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>14.2</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>15.7</v>
+        <v>14.1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>16.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.2</v>
+        <v>25.9</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>29.1</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>33.6</v>
+        <v>27.7</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>39.300000000000004</v>
+        <v>33.1</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="25"/>
-        <v>36.400000000000006</v>
+        <v>28.700000000000003</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="25"/>
-        <v>34.500000000000007</v>
+        <v>26.800000000000004</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:N16" ca="1" si="29">K16/2+RANDBETWEEN(-50,100)/10</f>
-        <v>12.350000000000003</v>
+        <v>9.7000000000000028</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="29"/>
-        <v>2.8750000000000018</v>
+        <v>3.9500000000000015</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="29"/>
-        <v>-3.3624999999999989</v>
+        <v>10.775000000000002</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.6812499999999995</v>
+        <v>5.3875000000000011</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -6377,17 +6399,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6408,78 +6430,78 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
-      </c>
       <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
         <v>96</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>97</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>98</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>99</v>
       </c>
-      <c r="M2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" t="s">
-        <v>102</v>
-      </c>
       <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>97</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>99</v>
-      </c>
-      <c r="T2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -6488,87 +6510,87 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.48</v>
+        <v>0.13</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(50,80)/100-B3</f>
-        <v>8.0000000000000071E-2</v>
+        <v>0.49</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:O3" ca="1" si="1">RANDBETWEEN(50,80)/100-C3</f>
-        <v>0.73</v>
+        <v>0.14000000000000007</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18999999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35000000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="P3">
         <f ca="1">1-B3-I3</f>
-        <v>0.43999999999999995</v>
+        <v>0.38</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:V3" ca="1" si="2">1-C3-J3</f>
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42000000000000004</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49999999999999994</v>
+        <v>0.26</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -6577,87 +6599,87 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:H32" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I32" ca="1" si="4">RANDBETWEEN(50,80)/100-B4</f>
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J32" ca="1" si="5">RANDBETWEEN(50,80)/100-C4</f>
-        <v>0.51</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" ca="1" si="6">RANDBETWEEN(50,80)/100-D4</f>
-        <v>0.45999999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L32" ca="1" si="7">RANDBETWEEN(50,80)/100-E4</f>
-        <v>0.12999999999999995</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M32" ca="1" si="8">RANDBETWEEN(50,80)/100-F4</f>
-        <v>0.26999999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N32" ca="1" si="9">RANDBETWEEN(50,80)/100-G4</f>
-        <v>0.36</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O32" ca="1" si="10">RANDBETWEEN(50,80)/100-H4</f>
-        <v>0.19000000000000006</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P32" ca="1" si="11">1-B4-I4</f>
-        <v>0.42000000000000004</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q32" ca="1" si="12">1-C4-J4</f>
-        <v>0.48</v>
+        <v>0.41000000000000009</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R32" ca="1" si="13">1-D4-K4</f>
-        <v>0.31000000000000005</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S32" ca="1" si="14">1-E4-L4</f>
-        <v>0.41000000000000009</v>
+        <v>0.47</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T32" ca="1" si="15">1-F4-M4</f>
-        <v>0.3000000000000001</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U32" ca="1" si="16">1-G4-N4</f>
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V32" ca="1" si="17">1-H4-O4</f>
-        <v>0.33999999999999997</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -6666,87 +6688,87 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.03</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
-      </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21000000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.63</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27999999999999997</v>
+        <v>0.38</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67999999999999994</v>
+        <v>0.59</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="9"/>
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38000000000000006</v>
+        <v>0.36</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37000000000000005</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.37999999999999995</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="16"/>
-        <v>0.22999999999999993</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -6755,59 +6777,59 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
-      </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42999999999999994</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41999999999999993</v>
+        <v>0.49</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
@@ -6815,11 +6837,11 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31000000000000005</v>
+        <v>0.24</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="14"/>
@@ -6827,15 +6849,15 @@
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24999999999999994</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -6844,35 +6866,35 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
-      </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
@@ -6880,51 +6902,51 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44000000000000006</v>
+        <v>0.48</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10999999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="13"/>
-        <v>0.19999999999999996</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33999999999999997</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="17"/>
-        <v>0.25</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -6933,87 +6955,87 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36999999999999994</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49999999999999994</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="15"/>
-        <v>0.37</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.48</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -7022,87 +7044,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34</v>
+        <v>0.76</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46000000000000008</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66999999999999993</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59000000000000008</v>
+        <v>0.64</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.3299999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44999999999999996</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.27</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31999999999999995</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -7111,87 +7133,87 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42000000000000004</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38999999999999996</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.20999999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26999999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49000000000000005</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -7200,87 +7222,87 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12999999999999995</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.4200000000000001</v>
+        <v>0.31000000000000011</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19999999999999996</v>
+        <v>0.34</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="16"/>
-        <v>0.26</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31999999999999995</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -7289,87 +7311,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31999999999999995</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13000000000000006</v>
+        <v>0.63</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24999999999999994</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52</v>
+        <v>0.10999999999999993</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42000000000000004</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35000000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="16"/>
-        <v>0.25</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49000000000000005</v>
+        <v>0.41000000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -7378,19 +7400,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
@@ -7398,67 +7420,67 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33999999999999997</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32000000000000006</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.55999999999999994</v>
+        <v>0.72</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55999999999999994</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48000000000000004</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.41000000000000003</v>
+        <v>0.31000000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -7467,11 +7489,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
@@ -7479,75 +7501,75 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44000000000000006</v>
+        <v>0.32</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4</v>
+        <v>0.12000000000000005</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.29999999999999993</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47000000000000003</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44999999999999996</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="15"/>
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19999999999999996</v>
+        <v>0.49</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21000000000000002</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -7556,71 +7578,71 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
-      </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.21</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21000000000000002</v>
+        <v>0.34000000000000008</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>0.69</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59000000000000008</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22999999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="14"/>
@@ -7628,15 +7650,15 @@
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000009</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.33999999999999986</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -7645,87 +7667,87 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16000000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18000000000000005</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29000000000000004</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.37</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="16"/>
-        <v>0.25</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="17"/>
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -7734,87 +7756,87 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.65</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38999999999999996</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="16"/>
-        <v>0.20999999999999996</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -7823,87 +7845,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.62</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56000000000000005</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21999999999999997</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="15"/>
-        <v>0.48</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28000000000000003</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39</v>
+        <v>0.48999999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -7912,87 +7934,87 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
-      </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="10"/>
-        <v>0.25999999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31999999999999995</v>
+        <v>0.48</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39999999999999997</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.45999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22999999999999998</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="16"/>
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29000000000000009</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -8001,87 +8023,87 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42000000000000004</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54</v>
+        <v>0.28999999999999992</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.26</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21999999999999997</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.36</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -8090,87 +8112,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27000000000000007</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="10"/>
-        <v>0.31000000000000005</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999989</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="15"/>
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="16"/>
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45999999999999996</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -8179,87 +8201,87 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14999999999999997</v>
+        <v>0.47</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0000000000000053E-2</v>
+        <v>0.47</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="10"/>
-        <v>0.29999999999999993</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24999999999999994</v>
+        <v>0.43999999999999989</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39999999999999997</v>
+        <v>0.35</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41000000000000009</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="16"/>
-        <v>0.38999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="17"/>
-        <v>0.30000000000000004</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -8268,87 +8290,87 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
+        <v>0.42</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.11</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44000000000000006</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15000000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="9"/>
-        <v>0.49</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60000000000000009</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44999999999999996</v>
+        <v>0.29000000000000009</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41000000000000009</v>
+        <v>0.2</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.42000000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21999999999999997</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -8357,15 +8379,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
@@ -8373,43 +8395,43 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15000000000000008</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65</v>
+        <v>0.32</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="11"/>
@@ -8417,27 +8439,27 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="12"/>
-        <v>0.40000000000000008</v>
+        <v>0.37</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="13"/>
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="15"/>
-        <v>0.40000000000000008</v>
+        <v>0.38</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="17"/>
-        <v>0.25</v>
+        <v>0.33999999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -8446,71 +8468,71 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.09</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.36</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39999999999999997</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23000000000000004</v>
+        <v>0.30999999999999994</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4200000000000001</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.35</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="14"/>
@@ -8518,15 +8540,15 @@
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26000000000000006</v>
+        <v>0.47</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="16"/>
-        <v>0.30000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36000000000000004</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -8535,87 +8557,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
-      </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71000000000000008</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43000000000000005</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0000000000000062E-2</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9999999999999951E-2</v>
+        <v>0.47000000000000008</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42999999999999994</v>
+        <v>0.39</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32999999999999996</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20999999999999996</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="13"/>
-        <v>0.32999999999999996</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43000000000000005</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="16"/>
-        <v>0.30000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43000000000000005</v>
+        <v>0.31000000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -8624,87 +8646,87 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32000000000000006</v>
+        <v>0.49</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27999999999999997</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42999999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31999999999999995</v>
+        <v>0.24</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="12"/>
-        <v>0.26000000000000006</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.34999999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -8713,87 +8735,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.48</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12000000000000005</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55999999999999994</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57999999999999996</v>
+        <v>0.42</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38000000000000006</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44</v>
+        <v>0.31000000000000011</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29000000000000004</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="15"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19999999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="17"/>
-        <v>0.41000000000000009</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -8802,59 +8824,59 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42000000000000004</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60000000000000009</v>
+        <v>0.43</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12</v>
+        <v>0.21000000000000008</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="11"/>
@@ -8862,27 +8884,27 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31999999999999995</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44999999999999996</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -8891,87 +8913,87 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="3"/>
         <v>0.32</v>
       </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
-      </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="3"/>
         <v>0.45</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26999999999999996</v>
+        <v>0.18000000000000005</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23000000000000004</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11000000000000004</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17000000000000004</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4499999999999999</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41000000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="16"/>
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36</v>
+        <v>0.48000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -8980,87 +9002,87 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45999999999999996</v>
+        <v>0.19</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24999999999999994</v>
+        <v>0.43</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33999999999999997</v>
+        <v>0.26</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="12"/>
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22999999999999998</v>
+        <v>0.35999999999999988</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="16"/>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31000000000000011</v>
+        <v>0.37000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -9069,92 +9091,92 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12999999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="10"/>
-        <v>0.06</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="13"/>
-        <v>0.27999999999999997</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4300000000000001</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="16"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
